--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/011_队员表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/011_队员表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7514A68F-B092-4055-A604-3C344A90D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="740"/>
+    <workbookView xWindow="-27585" yWindow="540" windowWidth="14835" windowHeight="16545" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role|队员表" sheetId="4" r:id="rId1"/>
@@ -13,17 +19,30 @@
     <sheet name="主界面表演配置" sheetId="7" r:id="rId4"/>
     <sheet name="主界面特殊表演" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="198">
   <si>
     <t>角色id</t>
   </si>
@@ -90,9 +109,6 @@
     <t>名字</t>
   </si>
   <si>
-    <t>是否显示</t>
-  </si>
-  <si>
     <t>别名</t>
   </si>
   <si>
@@ -150,9 +166,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>appear</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -216,18 +229,6 @@
     <t>aastring</t>
   </si>
   <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
-  </si>
-  <si>
-    <t>ID:Hero</t>
-  </si>
-  <si>
-    <t>ID:CharacterRecord</t>
-  </si>
-  <si>
     <t>凯瑟琳</t>
   </si>
   <si>
@@ -237,9 +238,6 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>hero_11</t>
-  </si>
-  <si>
     <t>char_kaiselin02</t>
   </si>
   <si>
@@ -252,9 +250,6 @@
     <t>Nie Fei</t>
   </si>
   <si>
-    <t>hero_12</t>
-  </si>
-  <si>
     <t>char_niezong</t>
   </si>
   <si>
@@ -271,9 +266,6 @@
   </si>
   <si>
     <t>shannon</t>
-  </si>
-  <si>
-    <t>hero_13</t>
   </si>
   <si>
     <r>
@@ -322,9 +314,6 @@
     <t>Tu Shan Ao</t>
   </si>
   <si>
-    <t>hero_15</t>
-  </si>
-  <si>
     <t>char_tushanao</t>
   </si>
   <si>
@@ -377,9 +366,6 @@
   </si>
   <si>
     <t>aint</t>
-  </si>
-  <si>
-    <t>1:{ID:Item}</t>
   </si>
   <si>
     <t>220001|1</t>
@@ -534,7 +520,7 @@
         <sz val="10.5"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>......</t>
     </r>
@@ -716,18 +702,57 @@
   <si>
     <t>{角色动作,,1005}{角色表情,,10040;20040;}{3}{角色动作,niefei,1007}{角色表情,niefei,10050;20050;}{2}{角色动作,niefei,1019}{角色表情,niefei,10100;20100;}{8}</t>
   </si>
+  <si>
+    <t>hero_11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_13</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>hero_15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑟琳1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>ID:Hero</t>
+  </si>
+  <si>
+    <t>ID:CharacterRecord</t>
+  </si>
+  <si>
+    <t>1:{ID:Item}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,159 +789,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,31 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399426252021851"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.398388622699667"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,186 +892,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.39838862269966735"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1194,274 +939,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1470,25 +973,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1497,32 +994,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1530,70 +1012,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1642,7 +1107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1675,9 +1140,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,6 +1192,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1880,19 +1379,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
@@ -1906,244 +1405,241 @@
     <col min="20" max="20" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="Q2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="S2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="T2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="P3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="R3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>50</v>
+      <c r="D5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2156,35 +1652,35 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="28"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="24"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>55</v>
+      <c r="D6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2197,35 +1693,35 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6" s="24"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>61</v>
+      <c r="D7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2238,35 +1734,35 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>67</v>
+      <c r="D8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2279,35 +1775,35 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>72</v>
+      <c r="D9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2320,35 +1816,35 @@
       </c>
       <c r="Q9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="28"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>77</v>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2361,109 +1857,190 @@
       </c>
       <c r="Q10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="28"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>93</v>
+      <c r="C5" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2475,15 +2052,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>93</v>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2495,15 +2072,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>93</v>
+      <c r="C7" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2515,17 +2092,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="13">
         <v>2</v>
       </c>
       <c r="E8">
@@ -2535,17 +2112,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9">
@@ -2555,17 +2132,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>500</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13">
         <v>2</v>
       </c>
       <c r="E10">
@@ -2575,17 +2152,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13">
         <v>2</v>
       </c>
       <c r="E11">
@@ -2595,17 +2172,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>500</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="13">
         <v>2</v>
       </c>
       <c r="E12">
@@ -2615,17 +2192,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
         <v>500</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="13">
         <v>2</v>
       </c>
       <c r="E13">
@@ -2635,15 +2212,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>93</v>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2655,15 +2232,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
         <v>500</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>93</v>
+      <c r="C15" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2675,15 +2252,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>500</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>93</v>
+      <c r="C16" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2695,15 +2272,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
         <v>500</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>93</v>
+      <c r="C17" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2715,15 +2292,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
         <v>500</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>93</v>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2735,15 +2312,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
         <v>500</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>93</v>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -2755,15 +2332,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
         <v>500</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>93</v>
+      <c r="C20" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2775,15 +2352,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
         <v>500</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>93</v>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2795,15 +2372,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22">
         <v>500</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>93</v>
+      <c r="C22" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2815,15 +2392,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23">
         <v>500</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>93</v>
+      <c r="C23" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2835,15 +2412,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
         <v>500</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>93</v>
+      <c r="C24" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2856,22 +2433,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="48.25" customWidth="1"/>
     <col min="5" max="6" width="10.125" customWidth="1"/>
@@ -2881,128 +2457,127 @@
     <col min="11" max="11" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="49.375" customWidth="1"/>
@@ -3014,57 +2589,57 @@
     <col min="15" max="15" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>11</v>
       </c>
@@ -3076,46 +2651,46 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>11</v>
       </c>
@@ -3127,46 +2702,46 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -3178,46 +2753,46 @@
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>4.5</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>A2+1</f>
         <v>12</v>
@@ -3231,46 +2806,46 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" ref="A6:A19" si="1">A3+1</f>
         <v>12</v>
@@ -3284,46 +2859,46 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M6">
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3337,46 +2912,46 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3390,46 +2965,46 @@
         <v>131</v>
       </c>
       <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" t="s">
         <v>151</v>
       </c>
-      <c r="E8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L8" t="s">
-        <v>162</v>
-      </c>
       <c r="M8">
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="P8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3443,46 +3018,46 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9" t="s">
-        <v>163</v>
-      </c>
-      <c r="O9" t="s">
-        <v>168</v>
-      </c>
       <c r="P9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3496,46 +3071,46 @@
         <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
         <v>159</v>
       </c>
-      <c r="I10" t="s">
-        <v>170</v>
-      </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M10">
         <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="P10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3549,46 +3124,46 @@
         <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M11">
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3602,46 +3177,46 @@
         <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M12">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3655,46 +3230,46 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3708,46 +3283,46 @@
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J14">
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3761,46 +3336,46 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3814,46 +3389,46 @@
         <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M16">
         <v>6</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3867,46 +3442,46 @@
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3920,46 +3495,46 @@
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3973,74 +3548,73 @@
         <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M19">
         <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P19">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
@@ -4050,103 +3624,103 @@
     <col min="10" max="10" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4157,16 +3731,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J4">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4177,7 +3751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4188,7 +3762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4200,7 +3774,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>